--- a/results/logistic/dilemma/seed-400/0.1/percents/scores-10.xlsx
+++ b/results/logistic/dilemma/seed-400/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="81">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -43,90 +43,96 @@
     <t>name</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>seriously</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>across</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
   <si>
     <t>fake</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>inspiring</t>
-  </si>
-  <si>
-    <t>–</t>
-  </si>
-  <si>
-    <t>rabbit</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>mit</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>drugs</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -136,106 +142,103 @@
     <t>0.95-positive</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>critics</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>own</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>real</t>
+    <t>highly</t>
   </si>
   <si>
     <t>most</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>pursuing</t>
-  </si>
-  <si>
-    <t>epic</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>just</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>and</t>
+    <t>has</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>of</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -611,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS36"/>
+  <dimension ref="A1:BS35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,25 +625,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AT1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BC1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BL1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -842,38 +845,38 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.05734032980165187</v>
+        <v>0.07980548109476523</v>
       </c>
       <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>121</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3">
+        <v>0.09520088998326248</v>
+      </c>
+      <c r="L3">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>58</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3">
-        <v>0.08698282806497001</v>
-      </c>
-      <c r="L3">
-        <v>14</v>
-      </c>
-      <c r="M3">
-        <v>14</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
@@ -884,44 +887,44 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1084</v>
+        <v>49</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.04063238437171506</v>
+        <v>0.04487677679898783</v>
       </c>
       <c r="U3">
+        <v>17</v>
+      </c>
+      <c r="V3">
+        <v>17</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>121</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3">
+        <v>0.05474486922745164</v>
+      </c>
+      <c r="AD3">
         <v>8</v>
       </c>
-      <c r="V3">
+      <c r="AE3">
         <v>8</v>
       </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>58</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3">
-        <v>0.04702964618650815</v>
-      </c>
-      <c r="AD3">
-        <v>9</v>
-      </c>
-      <c r="AE3">
-        <v>9</v>
-      </c>
       <c r="AF3">
         <v>0</v>
       </c>
@@ -932,44 +935,44 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.03804903377791968</v>
+        <v>0.03925503598189201</v>
       </c>
       <c r="AM3">
+        <v>17</v>
+      </c>
+      <c r="AN3">
+        <v>17</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>121</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU3">
+        <v>0.04611307625898985</v>
+      </c>
+      <c r="AV3">
         <v>8</v>
       </c>
-      <c r="AN3">
+      <c r="AW3">
         <v>8</v>
       </c>
-      <c r="AO3">
-        <v>1</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>58</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU3">
-        <v>0.04127837991541979</v>
-      </c>
-      <c r="AV3">
-        <v>9</v>
-      </c>
-      <c r="AW3">
-        <v>9</v>
-      </c>
       <c r="AX3">
         <v>0</v>
       </c>
@@ -980,44 +983,44 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD3">
-        <v>0.03700074450808228</v>
+        <v>0.03695618521842449</v>
       </c>
       <c r="BE3">
+        <v>17</v>
+      </c>
+      <c r="BF3">
+        <v>17</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>121</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM3">
+        <v>0.04078410382956202</v>
+      </c>
+      <c r="BN3">
         <v>8</v>
       </c>
-      <c r="BF3">
+      <c r="BO3">
         <v>8</v>
       </c>
-      <c r="BG3">
-        <v>1</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>58</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM3">
-        <v>0.03880064546600213</v>
-      </c>
-      <c r="BN3">
-        <v>9</v>
-      </c>
-      <c r="BO3">
-        <v>9</v>
-      </c>
       <c r="BP3">
         <v>0</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1036,13 +1039,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0490921705366004</v>
+        <v>0.05094478149312343</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1054,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.07516813895841937</v>
+        <v>0.08490062121797345</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1078,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T4">
-        <v>0.03773795105874397</v>
+        <v>0.03741210748486793</v>
       </c>
       <c r="U4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1102,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC4">
-        <v>0.04694331997893773</v>
+        <v>0.05143018825423248</v>
       </c>
       <c r="AD4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1126,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL4">
-        <v>0.03618636764823784</v>
+        <v>0.03523403683007245</v>
       </c>
       <c r="AM4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AN4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -1150,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AU4">
-        <v>0.04118740569026492</v>
+        <v>0.04427171031413776</v>
       </c>
       <c r="AV4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -1174,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD4">
-        <v>0.03581927023174836</v>
+        <v>0.03434337688138961</v>
       </c>
       <c r="BE4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BF4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1198,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BM4">
-        <v>0.03870766880299312</v>
+        <v>0.03973243825911419</v>
       </c>
       <c r="BN4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BO4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -1222,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1230,13 +1233,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.04294193134121001</v>
+        <v>0.04785087844557251</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1248,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.07510455351836669</v>
+        <v>0.07157448982876267</v>
       </c>
       <c r="L5">
         <v>9</v>
@@ -1272,44 +1275,44 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>51</v>
+        <v>1089</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T5">
-        <v>0.03709102379244882</v>
+        <v>0.03670785053539147</v>
       </c>
       <c r="U5">
+        <v>7</v>
+      </c>
+      <c r="V5">
+        <v>7</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5">
+        <v>0.03942515568814572</v>
+      </c>
+      <c r="AD5">
         <v>4</v>
       </c>
-      <c r="V5">
+      <c r="AE5">
         <v>4</v>
       </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>24</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC5">
-        <v>0.036650794345221</v>
-      </c>
-      <c r="AD5">
-        <v>5</v>
-      </c>
-      <c r="AE5">
-        <v>5</v>
-      </c>
       <c r="AF5">
         <v>0</v>
       </c>
@@ -1320,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL5">
-        <v>0.03598238334078583</v>
+        <v>0.03491439108444139</v>
       </c>
       <c r="AM5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO5">
         <v>1</v>
@@ -1344,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU5">
-        <v>0.03513361569444943</v>
+        <v>0.03661424271035833</v>
       </c>
       <c r="AV5">
         <v>4</v>
@@ -1368,44 +1371,44 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD5">
-        <v>0.03559280336784141</v>
+        <v>0.03418100693134653</v>
       </c>
       <c r="BE5">
+        <v>7</v>
+      </c>
+      <c r="BF5">
+        <v>7</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>40</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM5">
+        <v>0.03524255510130735</v>
+      </c>
+      <c r="BN5">
         <v>3</v>
       </c>
-      <c r="BF5">
+      <c r="BO5">
         <v>3</v>
       </c>
-      <c r="BG5">
-        <v>1</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>10</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BM5">
-        <v>0.03463707528732288</v>
-      </c>
-      <c r="BN5">
-        <v>4</v>
-      </c>
-      <c r="BO5">
-        <v>4</v>
-      </c>
       <c r="BP5">
         <v>0</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1424,7 +1427,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.04236557967372071</v>
+        <v>0.03713300663306426</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1442,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.04725965394055746</v>
+        <v>0.05249050469936912</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1466,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T6">
-        <v>0.03647357707632906</v>
+        <v>0.03336746504691734</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1490,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC6">
-        <v>0.03628617508046861</v>
+        <v>0.03852907323317647</v>
       </c>
       <c r="AD6">
         <v>4</v>
@@ -1514,13 +1517,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL6">
-        <v>0.03578931919875817</v>
+        <v>0.03310416545249855</v>
       </c>
       <c r="AM6">
         <v>3</v>
@@ -1538,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AU6">
-        <v>0.03507296621101284</v>
+        <v>0.03658160330897803</v>
       </c>
       <c r="AV6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -1562,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD6">
-        <v>0.03526999733881282</v>
+        <v>0.03299649658384321</v>
       </c>
       <c r="BE6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BF6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG6">
         <v>1</v>
@@ -1586,13 +1589,13 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="BL6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BM6">
-        <v>0.03457509084531687</v>
+        <v>0.03471627579109716</v>
       </c>
       <c r="BN6">
         <v>4</v>
@@ -1610,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1618,7 +1621,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03940573040952337</v>
+        <v>0.03500338423527345</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1636,13 +1639,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.04192515655411928</v>
+        <v>0.05183428286339642</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -1660,85 +1663,85 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T7">
-        <v>0.03627360278640544</v>
+        <v>0.03300225193305857</v>
       </c>
       <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>126</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7">
+        <v>0.03785783550211658</v>
+      </c>
+      <c r="AD7">
         <v>3</v>
       </c>
-      <c r="V7">
+      <c r="AE7">
         <v>3</v>
       </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7">
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>26</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL7">
+        <v>0.03262271542226183</v>
+      </c>
+      <c r="AM7">
+        <v>2</v>
+      </c>
+      <c r="AN7">
+        <v>2</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR7">
         <v>10</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC7">
-        <v>0.03622862427542166</v>
-      </c>
-      <c r="AD7">
-        <v>4</v>
-      </c>
-      <c r="AE7">
-        <v>4</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
-      <c r="AH7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>25</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL7">
-        <v>0.03556256689423074</v>
-      </c>
-      <c r="AM7">
-        <v>4</v>
-      </c>
-      <c r="AN7">
-        <v>4</v>
-      </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>74</v>
       </c>
       <c r="AT7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AU7">
-        <v>0.03483036827726652</v>
+        <v>0.03568669063678306</v>
       </c>
       <c r="AV7">
         <v>4</v>
@@ -1756,19 +1759,19 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD7">
-        <v>0.03519289109377995</v>
+        <v>0.03267129124982982</v>
       </c>
       <c r="BE7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -1780,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="BM7">
-        <v>0.03432715307729284</v>
+        <v>0.03435273003143983</v>
       </c>
       <c r="BN7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BO7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -1804,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1812,7 +1815,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03566204287754059</v>
+        <v>0.03176586492073698</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1830,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.04188276626075083</v>
+        <v>0.04346986851422685</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1854,13 +1857,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8">
-        <v>0.03523390096255894</v>
+        <v>0.03250392532205053</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1878,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AC8">
-        <v>0.03599842105523385</v>
+        <v>0.03624488708317194</v>
       </c>
       <c r="AD8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1902,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL8">
-        <v>0.03516770247783593</v>
+        <v>0.03257648562666021</v>
       </c>
       <c r="AM8">
         <v>2</v>
@@ -1929,16 +1932,16 @@
         <v>14</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AU8">
-        <v>0.03448243455210949</v>
+        <v>0.034925747778841</v>
       </c>
       <c r="AV8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -1950,13 +1953,13 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD8">
-        <v>0.03514084001426583</v>
+        <v>0.03262476685440974</v>
       </c>
       <c r="BE8">
         <v>2</v>
@@ -1977,16 +1980,16 @@
         <v>14</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BM8">
-        <v>0.03354827162087247</v>
+        <v>0.03390707328819562</v>
       </c>
       <c r="BN8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -1998,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2006,7 +2009,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03558135364409208</v>
+        <v>0.03172483170159825</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2024,19 +2027,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.04171320508727704</v>
+        <v>0.04228866920947598</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2048,13 +2051,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9">
-        <v>0.03514745842230217</v>
+        <v>0.03245841595765329</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -2072,19 +2075,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AC9">
-        <v>0.03330299418607989</v>
+        <v>0.03472237101989127</v>
       </c>
       <c r="AD9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2096,13 +2099,13 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL9">
-        <v>0.03508037037227494</v>
+        <v>0.03251869838215819</v>
       </c>
       <c r="AM9">
         <v>2</v>
@@ -2120,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AU9">
-        <v>0.03302524534042493</v>
+        <v>0.03491200957654254</v>
       </c>
       <c r="AV9">
         <v>3</v>
@@ -2144,13 +2147,13 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD9">
-        <v>0.03505314693495026</v>
+        <v>0.03256661136013463</v>
       </c>
       <c r="BE9">
         <v>2</v>
@@ -2168,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BL9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="BM9">
-        <v>0.03300263943685419</v>
+        <v>0.03378599059608457</v>
       </c>
       <c r="BN9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -2192,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2200,7 +2203,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03532775891039679</v>
+        <v>0.03167354017767484</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2218,19 +2221,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.03466190081941679</v>
+        <v>0.03330084411613235</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2242,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10">
-        <v>0.03487578186720947</v>
+        <v>0.03240152925215673</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -2266,13 +2269,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC10">
-        <v>0.03201756204057627</v>
+        <v>0.03391589681041894</v>
       </c>
       <c r="AD10">
         <v>2</v>
@@ -2290,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL10">
-        <v>0.03480589804051181</v>
+        <v>0.03246091113765617</v>
       </c>
       <c r="AM10">
         <v>2</v>
@@ -2314,13 +2317,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AU10">
-        <v>0.03270603474777957</v>
+        <v>0.03409095091262325</v>
       </c>
       <c r="AV10">
         <v>2</v>
@@ -2338,19 +2341,19 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="BC10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD10">
-        <v>0.0349018455675995</v>
+        <v>0.03250845586585951</v>
       </c>
       <c r="BE10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG10">
         <v>1</v>
@@ -2362,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="BM10">
-        <v>0.03290558684249992</v>
+        <v>0.03362444777882844</v>
       </c>
       <c r="BN10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP10">
         <v>0</v>
@@ -2386,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2394,7 +2397,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.03434796107566496</v>
+        <v>0.03162224865375143</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2412,13 +2415,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.02864915873908346</v>
+        <v>0.03271024446375691</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -2436,19 +2439,19 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T11">
-        <v>0.03440413102219316</v>
+        <v>0.03234464254666018</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -2460,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AC11">
-        <v>0.03190246043048237</v>
+        <v>0.03369187619667663</v>
       </c>
       <c r="AD11">
         <v>2</v>
@@ -2484,19 +2487,19 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL11">
-        <v>0.03475817801327611</v>
+        <v>0.03235689409755253</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11">
         <v>1</v>
@@ -2508,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AU11">
-        <v>0.03258473578090641</v>
+        <v>0.03385906289422943</v>
       </c>
       <c r="AV11">
         <v>2</v>
@@ -2532,19 +2535,19 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD11">
-        <v>0.03487679040208077</v>
+        <v>0.03240377597616432</v>
       </c>
       <c r="BE11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG11">
         <v>1</v>
@@ -2556,19 +2559,19 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="BM11">
-        <v>0.03287867055284217</v>
+        <v>0.03354382521186247</v>
       </c>
       <c r="BN11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP11">
         <v>0</v>
@@ -2580,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2588,13 +2591,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.03211431491250415</v>
+        <v>0.03152992391068929</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2606,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.02856437815234657</v>
+        <v>0.03254618900476374</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2630,19 +2633,19 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T12">
-        <v>0.03437943315354837</v>
+        <v>0.03224224647676638</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>1</v>
@@ -2654,19 +2657,19 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AC12">
-        <v>0.03190246043048237</v>
+        <v>0.03167651478316288</v>
       </c>
       <c r="AD12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2678,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AL12">
-        <v>0.03473322598311582</v>
+        <v>0.03233741100149157</v>
       </c>
       <c r="AM12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO12">
         <v>1</v>
@@ -2702,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AU12">
-        <v>0.03258473578090641</v>
+        <v>0.03336264745606149</v>
       </c>
       <c r="AV12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX12">
         <v>0</v>
@@ -2726,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD12">
-        <v>0.03485173523656204</v>
+        <v>0.03239261031123652</v>
       </c>
       <c r="BE12">
         <v>1</v>
@@ -2750,13 +2753,13 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BM12">
-        <v>0.03287867055284217</v>
+        <v>0.03342214715310306</v>
       </c>
       <c r="BN12">
         <v>2</v>
@@ -2774,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2782,13 +2785,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.03209126084580458</v>
+        <v>0.03082210088054624</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2800,19 +2803,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.02856437815234657</v>
+        <v>0.02319744190163513</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2824,13 +2827,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T13">
-        <v>0.03435473528490358</v>
+        <v>0.03168589496158096</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -2848,19 +2851,19 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AC13">
-        <v>0.03155715560020065</v>
+        <v>0.03149729829216903</v>
       </c>
       <c r="AD13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2872,13 +2875,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL13">
-        <v>0.03470827395295555</v>
+        <v>0.03218749518762673</v>
       </c>
       <c r="AM13">
         <v>1</v>
@@ -2896,19 +2899,19 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AU13">
-        <v>0.03222083888028692</v>
+        <v>0.03317713704134644</v>
       </c>
       <c r="AV13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -2920,13 +2923,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD13">
-        <v>0.03478909732276519</v>
+        <v>0.03235771701467146</v>
       </c>
       <c r="BE13">
         <v>1</v>
@@ -2944,19 +2947,19 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BM13">
-        <v>0.03250676390080613</v>
+        <v>0.03338198471128216</v>
       </c>
       <c r="BN13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP13">
         <v>0</v>
@@ -2968,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2976,7 +2979,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03206820677910501</v>
+        <v>0.02856937882533924</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2994,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.02831003639213589</v>
+        <v>0.02306619753444059</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3018,13 +3021,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T14">
-        <v>0.0342929906132916</v>
+        <v>0.03165176293828303</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -3042,19 +3045,19 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AC14">
-        <v>0.03086654593963722</v>
+        <v>0.03149729829216903</v>
       </c>
       <c r="AD14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -3066,13 +3069,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL14">
-        <v>0.03464589387755483</v>
+        <v>0.03215282284092551</v>
       </c>
       <c r="AM14">
         <v>1</v>
@@ -3090,13 +3093,13 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AU14">
-        <v>0.03168935509561353</v>
+        <v>0.03317713704134644</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3114,19 +3117,19 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BD14">
-        <v>0.03477754011424415</v>
+        <v>0.03227629932268631</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG14">
         <v>1</v>
@@ -3138,13 +3141,13 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BM14">
-        <v>0.03238687094813938</v>
+        <v>0.03338198471128216</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3162,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3170,7 +3173,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.03201057161235608</v>
+        <v>0.02853860391098519</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3188,19 +3191,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.02780135287171454</v>
+        <v>0.02306619753444059</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3212,13 +3215,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T15">
-        <v>0.0342806416789692</v>
+        <v>0.03157212155058785</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -3236,19 +3239,19 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC15">
-        <v>0.03057879191440246</v>
+        <v>0.0314076900466721</v>
       </c>
       <c r="AD15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -3260,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL15">
-        <v>0.03463341786247469</v>
+        <v>0.03207192069862268</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -3284,13 +3287,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AU15">
-        <v>0.03165903035389524</v>
+        <v>0.03308438183398891</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3308,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD15">
-        <v>0.03477656974000583</v>
+        <v>0.03227629932268631</v>
       </c>
       <c r="BE15">
         <v>1</v>
@@ -3332,13 +3335,13 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="BM15">
-        <v>0.03235587872713637</v>
+        <v>0.03330106446099201</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3356,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3364,7 +3367,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.03199904457900629</v>
+        <v>0.02846679577749242</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3382,19 +3385,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.02758940140487231</v>
+        <v>0.02300057535084332</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -3406,13 +3409,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T16">
-        <v>0.03426829274464681</v>
+        <v>0.03157212155058785</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -3433,16 +3436,16 @@
         <v>12</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AC16">
-        <v>0.03055001651187898</v>
+        <v>0.03131808180117517</v>
       </c>
       <c r="AD16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -3454,13 +3457,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL16">
-        <v>0.03462094184739455</v>
+        <v>0.03207192069862268</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -3481,10 +3484,10 @@
         <v>12</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AU16">
-        <v>0.03156805612874037</v>
+        <v>0.03299162662663137</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3502,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD16">
-        <v>0.03476404215724646</v>
+        <v>0.03224140602612124</v>
       </c>
       <c r="BE16">
         <v>1</v>
@@ -3526,31 +3529,31 @@
         <v>0</v>
       </c>
       <c r="BJ16">
+        <v>15</v>
+      </c>
+      <c r="BL16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM16">
+        <v>0.03322014421070185</v>
+      </c>
+      <c r="BN16">
+        <v>1</v>
+      </c>
+      <c r="BO16">
+        <v>1</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>1</v>
+      </c>
+      <c r="BR16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS16">
         <v>12</v>
-      </c>
-      <c r="BL16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM16">
-        <v>0.03226290206412736</v>
-      </c>
-      <c r="BN16">
-        <v>1</v>
-      </c>
-      <c r="BO16">
-        <v>1</v>
-      </c>
-      <c r="BP16">
-        <v>0</v>
-      </c>
-      <c r="BQ16">
-        <v>1</v>
-      </c>
-      <c r="BR16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS16">
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3558,7 +3561,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.03198751754565651</v>
+        <v>0.02846679577749242</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3579,16 +3582,16 @@
         <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.02756820625818808</v>
+        <v>0.02293495316724605</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -3600,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T17">
-        <v>0.03426829274464681</v>
+        <v>0.03153798952728992</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -3624,37 +3627,37 @@
         <v>0</v>
       </c>
       <c r="Z17">
+        <v>15</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC17">
+        <v>0.03131808180117517</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI17">
         <v>12</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC17">
-        <v>0.03026226248664422</v>
-      </c>
-      <c r="AD17">
-        <v>2</v>
-      </c>
-      <c r="AE17">
-        <v>2</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>1</v>
-      </c>
-      <c r="AH17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>73</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL17">
-        <v>0.03462094184739455</v>
+        <v>0.03203724835192147</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -3672,37 +3675,37 @@
         <v>0</v>
       </c>
       <c r="AR17">
+        <v>15</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU17">
+        <v>0.03299162662663137</v>
+      </c>
+      <c r="AV17">
+        <v>1</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA17">
         <v>12</v>
       </c>
-      <c r="AT17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU17">
-        <v>0.03156805612874037</v>
-      </c>
-      <c r="AV17">
-        <v>1</v>
-      </c>
-      <c r="AW17">
-        <v>1</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>1</v>
-      </c>
-      <c r="AZ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>4</v>
-      </c>
       <c r="BC17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD17">
-        <v>0.03476404215724646</v>
+        <v>0.03224140602612124</v>
       </c>
       <c r="BE17">
         <v>1</v>
@@ -3720,31 +3723,31 @@
         <v>0</v>
       </c>
       <c r="BJ17">
+        <v>15</v>
+      </c>
+      <c r="BL17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM17">
+        <v>0.03322014421070185</v>
+      </c>
+      <c r="BN17">
+        <v>1</v>
+      </c>
+      <c r="BO17">
+        <v>1</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>1</v>
+      </c>
+      <c r="BR17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS17">
         <v>12</v>
-      </c>
-      <c r="BL17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM17">
-        <v>0.03226290206412736</v>
-      </c>
-      <c r="BN17">
-        <v>1</v>
-      </c>
-      <c r="BO17">
-        <v>1</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>1</v>
-      </c>
-      <c r="BR17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS17">
-        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3752,7 +3755,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.03198751754565651</v>
+        <v>0.02843602086313837</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3770,37 +3773,37 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18">
+        <v>0.02293495316724605</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>12</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18">
-        <v>0.02735625479134585</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>73</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T18">
-        <v>0.03421889700735723</v>
+        <v>0.03153798952728992</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -3818,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AC18">
-        <v>0.0300702956370327</v>
+        <v>0.03122847355567825</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3842,13 +3845,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL18">
-        <v>0.03457103778707398</v>
+        <v>0.03203724835192147</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3866,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AU18">
-        <v>0.03153773138702208</v>
+        <v>0.03289887141927385</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3890,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD18">
-        <v>0.03471393182620899</v>
+        <v>0.03220651272955617</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3914,13 +3917,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BM18">
-        <v>0.03223190984312435</v>
+        <v>0.0331392239604117</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3938,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3946,7 +3949,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.03194140941225736</v>
+        <v>0.02843602086313837</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3964,13 +3967,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.022148928285013</v>
+        <v>0.02286933098364877</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3988,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T19">
-        <v>0.03421889700735723</v>
+        <v>0.03150385750399199</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4012,13 +4015,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AC19">
-        <v>0.03004152023450922</v>
+        <v>0.03122847355567825</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4036,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL19">
-        <v>0.03457103778707398</v>
+        <v>0.03200257600522025</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -4060,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AU19">
-        <v>0.03150740664530379</v>
+        <v>0.03289887141927385</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -4084,13 +4087,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD19">
-        <v>0.03471393182620899</v>
+        <v>0.03220651272955617</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -4108,13 +4111,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BM19">
-        <v>0.03220091762212135</v>
+        <v>0.0331392239604117</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4132,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4140,7 +4143,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03194140941225736</v>
+        <v>0.02840524594878432</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4158,13 +4161,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.02212773313832878</v>
+        <v>0.02286933098364877</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4182,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T20">
-        <v>0.03418185020439004</v>
+        <v>0.03150385750399199</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4206,13 +4209,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC20">
-        <v>0.0299551940269388</v>
+        <v>0.03118366943292979</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4230,13 +4233,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL20">
-        <v>0.03453360974183355</v>
+        <v>0.03200257600522025</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4254,19 +4257,19 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AU20">
-        <v>0.03149304507904795</v>
+        <v>0.03285249381559508</v>
       </c>
       <c r="AV20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX20">
         <v>0</v>
@@ -4278,13 +4281,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD20">
-        <v>0.03467634907793089</v>
+        <v>0.03220651272955617</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4302,13 +4305,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BM20">
-        <v>0.03207694873810933</v>
+        <v>0.03309876383526662</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4326,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4334,7 +4337,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03190682831220801</v>
+        <v>0.02840524594878432</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4352,13 +4355,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.02206414769827611</v>
+        <v>0.02283651989185014</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4376,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T21">
-        <v>0.03416950127006765</v>
+        <v>0.03150385750399199</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4400,13 +4403,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC21">
-        <v>0.0299551940269388</v>
+        <v>0.03109406118743286</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4424,13 +4427,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL21">
-        <v>0.03452113372675342</v>
+        <v>0.03200257600522025</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4448,13 +4451,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU21">
-        <v>0.03138610767843063</v>
+        <v>0.03275973860823756</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4472,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD21">
-        <v>0.03466382149517151</v>
+        <v>0.03217161943299111</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4496,13 +4499,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BM21">
-        <v>0.03207694873810933</v>
+        <v>0.03301784358497647</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4520,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4528,7 +4531,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.03189530127885822</v>
+        <v>0.02840524594878432</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4546,13 +4549,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.02206414769827611</v>
+        <v>0.02277089770825287</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4570,13 +4573,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T22">
-        <v>0.03413245446710046</v>
+        <v>0.03146972548069405</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4594,13 +4597,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AC22">
-        <v>0.02992641862441532</v>
+        <v>0.03095964881918748</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4618,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL22">
-        <v>0.03448370568151299</v>
+        <v>0.03196790365851904</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4642,13 +4645,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU22">
-        <v>0.03138610767843063</v>
+        <v>0.03262060579720127</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4666,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD22">
-        <v>0.03462623874689341</v>
+        <v>0.03215998833413608</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4690,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BM22">
-        <v>0.03195297985409731</v>
+        <v>0.03289646320954123</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4714,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4722,7 +4725,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.03186072017880887</v>
+        <v>0.02837447103443028</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4740,13 +4743,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.02204295255159189</v>
+        <v>0.02267246443285697</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4764,13 +4767,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T23">
-        <v>0.03408305872981088</v>
+        <v>0.03145834813959474</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4788,13 +4791,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC23">
-        <v>0.02989764322189184</v>
+        <v>0.0306908240826967</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4812,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL23">
-        <v>0.03443380162119242</v>
+        <v>0.03195634620961863</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4836,13 +4839,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AU23">
-        <v>0.03126480871155746</v>
+        <v>0.03234234017512868</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4860,13 +4863,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD23">
-        <v>0.03457612841585594</v>
+        <v>0.03210183283986098</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4887,10 +4890,10 @@
         <v>27</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BM23">
-        <v>0.0318290109700853</v>
+        <v>0.03265370245867077</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4908,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4916,7 +4919,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03181461204540972</v>
+        <v>0.0283642127296456</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4934,13 +4937,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.02202175740490766</v>
+        <v>0.02247559788206515</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4958,19 +4961,19 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="T24">
-        <v>0.03405836086116609</v>
+        <v>0.03145720994091392</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W24">
         <v>1</v>
@@ -4982,13 +4985,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC24">
-        <v>0.02978254161179793</v>
+        <v>0.03060121583719978</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5006,13 +5009,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL24">
-        <v>0.03440884959103214</v>
+        <v>0.03189855896511661</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5030,19 +5033,19 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AU24">
-        <v>0.03118979766186505</v>
+        <v>0.03224958496777115</v>
       </c>
       <c r="AV24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24">
         <v>0</v>
@@ -5054,13 +5057,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD24">
-        <v>0.0345510732503372</v>
+        <v>0.03210183283986098</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5078,19 +5081,19 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="BM24">
-        <v>0.03176295059673402</v>
+        <v>0.03257278220838062</v>
       </c>
       <c r="BN24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP24">
         <v>0</v>
@@ -5102,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5110,7 +5113,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03179155797871015</v>
+        <v>0.02831292120572219</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5128,13 +5131,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.02193697681817077</v>
+        <v>0.02240997569846788</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5152,13 +5155,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T25">
-        <v>0.03394722045226453</v>
+        <v>0.03140146143409819</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5176,13 +5179,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC25">
-        <v>0.02978254161179793</v>
+        <v>0.03024278285521208</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5200,13 +5203,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL25">
-        <v>0.03429656545531085</v>
+        <v>0.03189855896511661</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -5224,19 +5227,19 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="AU25">
-        <v>0.03115947292014676</v>
+        <v>0.03187856413834105</v>
       </c>
       <c r="AV25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX25">
         <v>0</v>
@@ -5248,19 +5251,19 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="BD25">
-        <v>0.03443832500550289</v>
+        <v>0.03206554324151421</v>
       </c>
       <c r="BE25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BG25">
         <v>1</v>
@@ -5272,19 +5275,19 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="BM25">
-        <v>0.03145302838670399</v>
+        <v>0.03224910120722</v>
       </c>
       <c r="BN25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP25">
         <v>0</v>
@@ -5296,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5304,7 +5307,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.03168781467856207</v>
+        <v>0.02831292120572219</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5322,13 +5325,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K26">
-        <v>0.02193697681817077</v>
+        <v>0.0221474869640788</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5346,19 +5349,19 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="T26">
-        <v>0.03382612244980588</v>
+        <v>0.03140146143409819</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>1</v>
@@ -5370,13 +5373,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AC26">
-        <v>0.02966744000170403</v>
+        <v>0.02921228803199744</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5394,13 +5397,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AL26">
-        <v>0.03387238094258602</v>
+        <v>0.03181765682281378</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5418,13 +5421,13 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AU26">
-        <v>0.0311435097446843</v>
+        <v>0.03081187925372947</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5442,13 +5445,13 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="BC26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BD26">
-        <v>0.03401238719168437</v>
+        <v>0.03202041514787582</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -5466,19 +5469,19 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="BM26">
-        <v>0.03142203616570098</v>
+        <v>0.03131851832888322</v>
       </c>
       <c r="BN26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP26">
         <v>0</v>
@@ -5490,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5498,7 +5501,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.03129589554466934</v>
+        <v>0.02824111307222942</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5516,13 +5519,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K27">
-        <v>0.02185219623143388</v>
+        <v>0.02139283185271019</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5540,13 +5543,13 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T27">
-        <v>0.03352735668530309</v>
+        <v>0.03132182004640301</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5564,13 +5567,13 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AC27">
-        <v>0.02955233839161013</v>
+        <v>0.02916748390924898</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5588,19 +5591,19 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AL27">
-        <v>0.03374543675869972</v>
+        <v>0.03181765682281378</v>
       </c>
       <c r="AM27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>1</v>
@@ -5612,19 +5615,19 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AU27">
-        <v>0.03085622550296385</v>
+        <v>0.0307655016500507</v>
       </c>
       <c r="AV27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX27">
         <v>0</v>
@@ -5636,19 +5639,19 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="BD27">
-        <v>0.03371269557969787</v>
+        <v>0.03202041514787582</v>
       </c>
       <c r="BE27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG27">
         <v>1</v>
@@ -5660,13 +5663,13 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BM27">
-        <v>0.03130214321303423</v>
+        <v>0.03127805820373815</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5684,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5692,7 +5695,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.03093855751082597</v>
+        <v>0.02824111307222942</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5710,13 +5713,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.02176741564469699</v>
+        <v>0.02136002076091156</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5734,13 +5737,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T28">
-        <v>0.03314453972130884</v>
+        <v>0.03132182004640301</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5758,13 +5761,13 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AC28">
-        <v>0.02906315654871103</v>
+        <v>0.0290330715410036</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5782,13 +5785,13 @@
         <v>0</v>
       </c>
       <c r="AI28">
+        <v>63</v>
+      </c>
+      <c r="AK28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK28" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="AL28">
-        <v>0.03348562447510161</v>
+        <v>0.03175986957831176</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -5806,13 +5809,13 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AU28">
-        <v>0.03062798913547337</v>
+        <v>0.03062636883901442</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5830,13 +5833,13 @@
         <v>0</v>
       </c>
       <c r="BA28">
+        <v>63</v>
+      </c>
+      <c r="BC28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BC28" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="BD28">
-        <v>0.03362403212614396</v>
+        <v>0.03196225965360071</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5854,19 +5857,19 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="BM28">
-        <v>0.03111211395567094</v>
+        <v>0.03115667782830292</v>
       </c>
       <c r="BN28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP28">
         <v>0</v>
@@ -5878,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5886,7 +5889,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0309155034441264</v>
+        <v>0.02818982154830601</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5904,13 +5907,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.0214070981510652</v>
+        <v>0.02126158748551565</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -5928,13 +5931,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T29">
-        <v>0.03311984185266405</v>
+        <v>0.03126493334090646</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5952,19 +5955,19 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="AC29">
-        <v>0.02868118534131319</v>
+        <v>0.02871944268176436</v>
       </c>
       <c r="AD29">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AE29">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -5976,19 +5979,19 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>1084</v>
+        <v>70</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="AL29">
-        <v>0.03346067244494132</v>
+        <v>0.03155943012342461</v>
       </c>
       <c r="AM29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO29">
         <v>1</v>
@@ -6000,13 +6003,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AU29">
-        <v>0.02993052007595269</v>
+        <v>0.03030172561326307</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6024,13 +6027,13 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BD29">
-        <v>0.03359897696062523</v>
+        <v>0.03165985108337013</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -6048,13 +6051,13 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BM29">
-        <v>0.03058932212996513</v>
+        <v>0.03087345695228737</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6072,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6080,7 +6083,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.03055816541028303</v>
+        <v>0.02792310562390427</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6098,13 +6101,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.02091960977732807</v>
+        <v>0.0210319098429252</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6122,13 +6125,13 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T30">
-        <v>0.0327370248886698</v>
+        <v>0.03096912247232438</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6146,13 +6149,13 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AC30">
-        <v>0.02840132229067108</v>
+        <v>0.02674806128083202</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -6170,13 +6173,13 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL30">
-        <v>0.03307391597745692</v>
+        <v>0.03145937590690124</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -6194,13 +6197,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AU30">
-        <v>0.02986987059251611</v>
+        <v>0.02826111105139745</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6218,13 +6221,13 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BD30">
-        <v>0.03321062189508482</v>
+        <v>0.03160169558909502</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6242,13 +6245,13 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="BM30">
-        <v>0.03052733768795913</v>
+        <v>0.02909321144590397</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6266,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6274,7 +6277,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.02512893270253376</v>
+        <v>0.02787181409998087</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6292,13 +6295,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>607</v>
+        <v>70</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.02087721948395962</v>
+        <v>0.01958822180378525</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6316,13 +6319,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T31">
-        <v>0.02692067682282163</v>
+        <v>0.03091223576682782</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6340,13 +6343,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>607</v>
+        <v>70</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AC31">
-        <v>0.02834377148562412</v>
+        <v>0.01778723673113955</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6364,13 +6367,13 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>60</v>
+        <v>314</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL31">
-        <v>0.02719771287470995</v>
+        <v>0.03140158866239922</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6388,13 +6391,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>607</v>
+        <v>70</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AU31">
-        <v>0.0295666231753332</v>
+        <v>0.01898559031564466</v>
       </c>
       <c r="AV31">
         <v>1</v>
@@ -6412,19 +6415,19 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>70</v>
+        <v>314</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="BD31">
-        <v>0.02731013041542245</v>
+        <v>0.03160123015516779</v>
       </c>
       <c r="BE31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG31">
         <v>1</v>
@@ -6436,13 +6439,13 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>607</v>
+        <v>102</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BM31">
-        <v>0.03021741547792908</v>
+        <v>0.02100118641688854</v>
       </c>
       <c r="BN31">
         <v>1</v>
@@ -6460,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>70</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6468,7 +6471,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.02780000596648809</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6486,13 +6489,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>2787</v>
+        <v>77</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>0.02066526801711739</v>
+        <v>0.0130260034440582</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6510,13 +6513,13 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>70</v>
+        <v>314</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>0.03083259437913264</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6534,13 +6537,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>2787</v>
+        <v>77</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AC32">
-        <v>0.02805601746038936</v>
+        <v>0.01644311304868568</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6558,13 +6561,13 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>70</v>
+        <v>344</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>0.03132068652009638</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6582,13 +6585,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>2787</v>
+        <v>77</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AU32">
-        <v>0.02328940163964708</v>
+        <v>0.01759426220528174</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6606,13 +6609,13 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>277</v>
+        <v>344</v>
       </c>
       <c r="BC32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BD32">
-        <v>0</v>
+        <v>0.03152027789710987</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6630,235 +6633,427 @@
         <v>0</v>
       </c>
       <c r="BJ32">
+        <v>77</v>
+      </c>
+      <c r="BL32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM32">
+        <v>0.01978738266253622</v>
+      </c>
+      <c r="BN32">
+        <v>1</v>
+      </c>
+      <c r="BO32">
+        <v>1</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <v>1</v>
+      </c>
+      <c r="BR32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS32">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:71">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>0.02236310443060666</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>607</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33">
+        <v>0.01204167069009914</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>344</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T33">
+        <v>0.02480260359649784</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>607</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC33">
+        <v>0.01465094813874719</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>384</v>
+      </c>
+      <c r="AK33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL33">
+        <v>0.02519523860288196</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>607</v>
+      </c>
+      <c r="AT33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU33">
+        <v>0.01573915805813119</v>
+      </c>
+      <c r="AV33">
+        <v>1</v>
+      </c>
+      <c r="AW33">
+        <v>1</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>384</v>
+      </c>
+      <c r="BC33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD33">
+        <v>0.02535579550394816</v>
+      </c>
+      <c r="BE33">
+        <v>1</v>
+      </c>
+      <c r="BF33">
+        <v>1</v>
+      </c>
+      <c r="BG33">
+        <v>1</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>607</v>
+      </c>
+      <c r="BL33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM33">
+        <v>0.01816897765673313</v>
+      </c>
+      <c r="BN33">
+        <v>1</v>
+      </c>
+      <c r="BO33">
+        <v>1</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>1</v>
+      </c>
+      <c r="BR33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:71">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>2787</v>
       </c>
-      <c r="BL32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM32">
-        <v>0.02380202573030721</v>
-      </c>
-      <c r="BN32">
-        <v>1</v>
-      </c>
-      <c r="BO32">
-        <v>1</v>
-      </c>
-      <c r="BP32">
-        <v>0</v>
-      </c>
-      <c r="BQ32">
-        <v>1</v>
-      </c>
-      <c r="BR32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS32">
-        <v>277</v>
+      <c r="J34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34">
+        <v>0.01072922701815373</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>384</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>2787</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC34">
+        <v>0.01173208727876076</v>
+      </c>
+      <c r="AD34">
+        <v>9</v>
+      </c>
+      <c r="AE34">
+        <v>9</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>1089</v>
+      </c>
+      <c r="AK34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>2787</v>
+      </c>
+      <c r="AT34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU34">
+        <v>0.0005736816551753619</v>
+      </c>
+      <c r="AV34">
+        <v>1</v>
+      </c>
+      <c r="AW34">
+        <v>1</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>1</v>
+      </c>
+      <c r="AZ34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>711</v>
+      </c>
+      <c r="BC34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>1</v>
+      </c>
+      <c r="BF34">
+        <v>1</v>
+      </c>
+      <c r="BG34">
+        <v>1</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>2787</v>
+      </c>
+      <c r="BL34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM34">
+        <v>0.004938516734292878</v>
+      </c>
+      <c r="BN34">
+        <v>1</v>
+      </c>
+      <c r="BO34">
+        <v>1</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>1</v>
+      </c>
+      <c r="BR34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>711</v>
       </c>
     </row>
-    <row r="33" spans="10:71">
-      <c r="J33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33">
-        <v>0.01627787265348324</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>277</v>
-      </c>
-      <c r="AB33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC33">
-        <v>0.02209950913802977</v>
-      </c>
-      <c r="AD33">
-        <v>1</v>
-      </c>
-      <c r="AE33">
-        <v>1</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>1</v>
-      </c>
-      <c r="AH33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>277</v>
-      </c>
-      <c r="AT33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU33">
-        <v>0.01676483025919851</v>
-      </c>
-      <c r="AV33">
-        <v>14</v>
-      </c>
-      <c r="AW33">
-        <v>14</v>
-      </c>
-      <c r="AX33">
-        <v>0</v>
-      </c>
-      <c r="AY33">
-        <v>1</v>
-      </c>
-      <c r="AZ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA33">
-        <v>1084</v>
-      </c>
-      <c r="BL33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM33">
-        <v>0.01286177171624674</v>
-      </c>
-      <c r="BN33">
-        <v>1</v>
-      </c>
-      <c r="BO33">
-        <v>1</v>
-      </c>
-      <c r="BP33">
-        <v>0</v>
-      </c>
-      <c r="BQ33">
-        <v>1</v>
-      </c>
-      <c r="BR33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS33">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="34" spans="10:71">
-      <c r="J34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34">
-        <v>0.008795985873952531</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>630</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC34">
-        <v>0.01194179204724265</v>
-      </c>
-      <c r="AD34">
-        <v>1</v>
-      </c>
-      <c r="AE34">
-        <v>1</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>1</v>
-      </c>
-      <c r="AH34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>630</v>
-      </c>
-      <c r="AT34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU34">
-        <v>0.01258476781309054</v>
-      </c>
-      <c r="AV34">
-        <v>1</v>
-      </c>
-      <c r="AW34">
-        <v>1</v>
-      </c>
-      <c r="AX34">
-        <v>0</v>
-      </c>
-      <c r="AY34">
-        <v>1</v>
-      </c>
-      <c r="AZ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA34">
-        <v>630</v>
-      </c>
-      <c r="BL34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BM34">
-        <v>0.01163108021064414</v>
-      </c>
-      <c r="BN34">
-        <v>14</v>
-      </c>
-      <c r="BO34">
-        <v>14</v>
-      </c>
-      <c r="BP34">
-        <v>0</v>
-      </c>
-      <c r="BQ34">
-        <v>1</v>
-      </c>
-      <c r="BR34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS34">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="35" spans="10:71">
+    <row r="35" spans="1:71">
       <c r="J35" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K35">
-        <v>0.001992343788316957</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -6876,13 +7071,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>951</v>
+        <v>711</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AC35">
-        <v>0.002704887837206769</v>
+        <v>0</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -6900,19 +7095,19 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>951</v>
+        <v>711</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="AU35">
-        <v>0.002850525721519304</v>
+        <v>0</v>
       </c>
       <c r="AV35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AX35">
         <v>0</v>
@@ -6924,19 +7119,19 @@
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>951</v>
+        <v>1089</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="BM35">
-        <v>0.002913268774282393</v>
+        <v>0</v>
       </c>
       <c r="BN35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BO35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BP35">
         <v>0</v>
@@ -6948,105 +7143,7 @@
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="36" spans="10:71">
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>1045</v>
-      </c>
-      <c r="AB36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>1</v>
-      </c>
-      <c r="AE36">
-        <v>1</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>1</v>
-      </c>
-      <c r="AH36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>1045</v>
-      </c>
-      <c r="AT36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
-      <c r="AV36">
-        <v>1</v>
-      </c>
-      <c r="AW36">
-        <v>1</v>
-      </c>
-      <c r="AX36">
-        <v>0</v>
-      </c>
-      <c r="AY36">
-        <v>1</v>
-      </c>
-      <c r="AZ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA36">
-        <v>1045</v>
-      </c>
-      <c r="BL36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM36">
-        <v>0</v>
-      </c>
-      <c r="BN36">
-        <v>1</v>
-      </c>
-      <c r="BO36">
-        <v>1</v>
-      </c>
-      <c r="BP36">
-        <v>0</v>
-      </c>
-      <c r="BQ36">
-        <v>1</v>
-      </c>
-      <c r="BR36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS36">
-        <v>1045</v>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
